--- a/src/main/resources/a.xlsx
+++ b/src/main/resources/a.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>a</t>
   </si>
@@ -28,12 +28,58 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>val0</t>
+  </si>
+  <si>
+    <t>val1</t>
+  </si>
+  <si>
+    <t>val2</t>
+  </si>
+  <si>
+    <t>val3</t>
+  </si>
+  <si>
+    <t>val4</t>
+  </si>
+  <si>
+    <t>val5</t>
+  </si>
+  <si>
+    <t>val6</t>
+  </si>
+  <si>
+    <t>val7</t>
+  </si>
+  <si>
+    <t>val8</t>
+  </si>
+  <si>
+    <t>val9</t>
+  </si>
+  <si>
+    <t>val10</t>
+  </si>
+  <si>
+    <t>val11</t>
+  </si>
+  <si>
+    <t>val12</t>
+  </si>
+  <si>
+    <t>val13</t>
+  </si>
+  <si>
+    <t>val14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
@@ -354,45 +400,57 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.5546875" collapsed="false"/>
+    <col min="10" max="13" bestFit="true" customWidth="true" width="10.5546875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>44082</v>
-      </c>
-      <c r="C1" s="1">
-        <v>44089</v>
-      </c>
-      <c r="D1" s="1">
-        <v>44089</v>
-      </c>
-      <c r="E1" s="1">
-        <v>44089</v>
-      </c>
-      <c r="F1" s="1">
-        <v>44089</v>
-      </c>
-      <c r="G1" s="1">
-        <v>44089</v>
-      </c>
-      <c r="H1" s="1">
-        <v>44089</v>
-      </c>
-      <c r="I1" s="1">
-        <v>44089</v>
-      </c>
-      <c r="J1" s="1">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
